--- a/biology/Biochimie/Homoériodictyol/Homoériodictyol.xlsx
+++ b/biology/Biochimie/Homoériodictyol/Homoériodictyol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homo%C3%A9riodictyol</t>
+          <t>Homoériodictyol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'homoériodictyol est une flavanone extraite des feuilles de l'Herba Santa (Eriodictyon californicum)[2], une plante poussant dans le nord du Mexique et dans l'État de Californie[3].  
+L'homoériodictyol est une flavanone extraite des feuilles de l'Herba Santa (Eriodictyon californicum), une plante poussant dans le nord du Mexique et dans l'État de Californie.  
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Homo%C3%A9riodictyol</t>
+          <t>Homoériodictyol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'homoériodictyol est l'une des quatre flavanones, trouvée dans cette plante, avec la capacité de réduire l'amertume de composés amers : l'ériodictyol, la stérubine, l'homoériodictyol et son sel de sodium (homoériodictyol sodique)[2].
-L'homoériodictyol sodique est celle qui est la plus active, en réduisant de 10 à 40 % l'amertume de la salicyline, l'amarogentine, le paracétamol et la quinine. Cependant, aucune réduction d'amertume n'a été détectée en présence des émulsions acide d'acide linoléique[2].
-Cette flavanone est un agent (arôme) masquant potentiel dans les applications alimentaires ou pharmaceutiques. Elle a déjà obtenu le statut Fema GRAS (numéro 4228) en 2005 et peut donc déjà être utilisée dans les aliments en tant qu'arôme naturel[4].
-Des études structurelles basées sur l'ériodictyol et l'homoériodictyol ont permis de trouver un dérivé de la vanilline avec des propriétés masquantes similaires, l'acide 2,4-dihydroxybenzoïque vanillylamide. À 0,1 g·l-1, ce composé réduit de 30 % la perception amère d'une solution contenant 0,5 g·l-1 de caféine[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'homoériodictyol est l'une des quatre flavanones, trouvée dans cette plante, avec la capacité de réduire l'amertume de composés amers : l'ériodictyol, la stérubine, l'homoériodictyol et son sel de sodium (homoériodictyol sodique).
+L'homoériodictyol sodique est celle qui est la plus active, en réduisant de 10 à 40 % l'amertume de la salicyline, l'amarogentine, le paracétamol et la quinine. Cependant, aucune réduction d'amertume n'a été détectée en présence des émulsions acide d'acide linoléique.
+Cette flavanone est un agent (arôme) masquant potentiel dans les applications alimentaires ou pharmaceutiques. Elle a déjà obtenu le statut Fema GRAS (numéro 4228) en 2005 et peut donc déjà être utilisée dans les aliments en tant qu'arôme naturel.
+Des études structurelles basées sur l'ériodictyol et l'homoériodictyol ont permis de trouver un dérivé de la vanilline avec des propriétés masquantes similaires, l'acide 2,4-dihydroxybenzoïque vanillylamide. À 0,1 g·l-1, ce composé réduit de 30 % la perception amère d'une solution contenant 0,5 g·l-1 de caféine.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Homo%C3%A9riodictyol</t>
+          <t>Homoériodictyol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Extraction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flavanone est extraite par un solvant non miscible dans l'eau, ensuite les corps gras sont éliminés, l'extrait est purifié sur charbon actif, puis traité avec une solution à base de sodium ionique, et enfin précipité et purifié par cristallisation[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flavanone est extraite par un solvant non miscible dans l'eau, ensuite les corps gras sont éliminés, l'extrait est purifié sur charbon actif, puis traité avec une solution à base de sodium ionique, et enfin précipité et purifié par cristallisation.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Homo%C3%A9riodictyol</t>
+          <t>Homoériodictyol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,14 +593,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'extrait de l'Herba Santa est utilisé dans l'alimentation[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrait de l'Herba Santa est utilisé dans l'alimentation :
 Boissons alcoolisées: 34–87 ppm ;
 Autres boissons : 21–62 ppm ;
 Aliments cuits : maximum 250 ppm ;
 Aliments congelés : 50–200 ppm.
-L'homoériodictyol est habituellement utilisé autour de 100 à 200 ppm et à un niveau maximum de 100 à 800 ppm suivant la catégorie alimentaire concernée[4]. 
+L'homoériodictyol est habituellement utilisé autour de 100 à 200 ppm et à un niveau maximum de 100 à 800 ppm suivant la catégorie alimentaire concernée. 
 </t>
         </is>
       </c>
